--- a/2020/December/All Details/24.12.2020/MC Bank Statement Dec-2020.xlsx
+++ b/2020/December/All Details/24.12.2020/MC Bank Statement Dec-2020.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -809,16 +809,22 @@
     <t>Nabinogor Somobai</t>
   </si>
   <si>
-    <t xml:space="preserve">Ataur </t>
-  </si>
-  <si>
     <t>23.12.2020</t>
   </si>
   <si>
-    <t>Date: 23.12.2020</t>
+    <t>Khondokar</t>
   </si>
   <si>
-    <t>Khondokar</t>
+    <t>24.12.2020</t>
+  </si>
+  <si>
+    <t>Date: 24.12.2020</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>24.12.220</t>
   </si>
 </sst>
 </file>
@@ -2931,12 +2937,51 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2947,45 +2992,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3151,7 +3157,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3169,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3186,14 +3192,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3281,7 +3287,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3299,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3316,14 +3322,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3355,7 +3361,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,7 +3373,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3390,14 +3396,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3702,7 +3708,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4149,7 +4155,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="35"/>
       <c r="B26" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="39">
         <v>610000</v>
@@ -4167,12 +4173,18 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="35"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="39">
+        <v>530000</v>
+      </c>
+      <c r="D27" s="255">
+        <v>600000</v>
+      </c>
       <c r="E27" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="2"/>
@@ -4185,7 +4197,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="2"/>
@@ -4198,7 +4210,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="2"/>
@@ -4211,7 +4223,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="2"/>
@@ -4224,7 +4236,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="2"/>
@@ -4237,7 +4249,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="2"/>
@@ -4250,7 +4262,7 @@
       <c r="D33" s="42"/>
       <c r="E33" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="2"/>
@@ -4263,7 +4275,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="2"/>
@@ -4276,7 +4288,7 @@
       <c r="D35" s="39"/>
       <c r="E35" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="2"/>
@@ -4289,7 +4301,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="2"/>
@@ -4302,7 +4314,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="41">
         <f t="shared" si="0"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="2"/>
@@ -4315,7 +4327,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="41">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="2"/>
@@ -4328,7 +4340,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="2"/>
@@ -4341,7 +4353,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="2"/>
@@ -4354,7 +4366,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="2"/>
@@ -4367,7 +4379,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="2"/>
@@ -4380,7 +4392,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="2"/>
@@ -4393,7 +4405,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="2"/>
@@ -4406,7 +4418,7 @@
       <c r="D45" s="39"/>
       <c r="E45" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="2"/>
@@ -4419,7 +4431,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="2"/>
@@ -4432,7 +4444,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="2"/>
@@ -4445,7 +4457,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="2"/>
@@ -4457,7 +4469,7 @@
       <c r="D49" s="39"/>
       <c r="E49" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="2"/>
@@ -4469,7 +4481,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="2"/>
@@ -4481,7 +4493,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="2"/>
@@ -4493,7 +4505,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="2"/>
@@ -4505,7 +4517,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="2"/>
@@ -4517,7 +4529,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="2"/>
@@ -4529,7 +4541,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="2"/>
@@ -4540,7 +4552,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="2"/>
@@ -4551,7 +4563,7 @@
       <c r="D57" s="39"/>
       <c r="E57" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="2"/>
@@ -4562,7 +4574,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="2"/>
@@ -4573,7 +4585,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="2"/>
@@ -4584,7 +4596,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="2"/>
@@ -4595,7 +4607,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="2"/>
@@ -4606,7 +4618,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="2"/>
@@ -4617,7 +4629,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="2"/>
@@ -4628,7 +4640,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="2"/>
@@ -4639,7 +4651,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="2"/>
@@ -4650,7 +4662,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="2"/>
@@ -4661,7 +4673,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="2"/>
@@ -4672,7 +4684,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="2"/>
@@ -4683,7 +4695,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="41">
         <f t="shared" si="1"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="2"/>
@@ -4694,7 +4706,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="41">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="2"/>
@@ -4705,7 +4717,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="2"/>
@@ -4716,7 +4728,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="2"/>
@@ -4727,7 +4739,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="2"/>
@@ -4738,7 +4750,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="2"/>
@@ -4749,7 +4761,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="2"/>
@@ -4760,7 +4772,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="2"/>
@@ -4771,7 +4783,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="2"/>
@@ -4782,7 +4794,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="2"/>
@@ -4793,7 +4805,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="2"/>
@@ -4804,7 +4816,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="2"/>
@@ -4815,7 +4827,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="2"/>
@@ -4826,7 +4838,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="41">
         <f t="shared" si="2"/>
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="2"/>
@@ -4835,15 +4847,15 @@
       <c r="B83" s="45"/>
       <c r="C83" s="41">
         <f>SUM(C5:C72)</f>
-        <v>10546844</v>
+        <v>11076844</v>
       </c>
       <c r="D83" s="41">
         <f>SUM(D5:D77)</f>
-        <v>9930000</v>
+        <v>10530000</v>
       </c>
       <c r="E83" s="66">
         <f>E71+C83-D83</f>
-        <v>1233688</v>
+        <v>1093688</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="2"/>
@@ -4869,7 +4881,7 @@
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="13" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
@@ -4883,73 +4895,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="286" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="292"/>
-      <c r="Q1" s="292"/>
-      <c r="R1" s="292"/>
-      <c r="S1" s="292"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
+      <c r="Q1" s="286"/>
+      <c r="R1" s="286"/>
+      <c r="S1" s="286"/>
     </row>
     <row r="2" spans="1:26" s="203" customFormat="1" ht="18">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="293"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="293"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="293"/>
-      <c r="S2" s="293"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="287"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="287"/>
+      <c r="Q2" s="287"/>
+      <c r="R2" s="287"/>
+      <c r="S2" s="287"/>
     </row>
     <row r="3" spans="1:26" s="204" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="294" t="s">
+      <c r="A3" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="295"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="295"/>
-      <c r="N3" s="295"/>
-      <c r="O3" s="295"/>
-      <c r="P3" s="295"/>
-      <c r="Q3" s="295"/>
-      <c r="R3" s="295"/>
-      <c r="S3" s="296"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="289"/>
+      <c r="O3" s="289"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="289"/>
+      <c r="S3" s="290"/>
       <c r="U3" s="116"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -4958,58 +4970,58 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="206" customFormat="1">
-      <c r="A4" s="297" t="s">
+      <c r="A4" s="291" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="299" t="s">
+      <c r="B4" s="293" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="286" t="s">
+      <c r="C4" s="295" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="286" t="s">
+      <c r="D4" s="295" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="286" t="s">
+      <c r="E4" s="295" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="286" t="s">
+      <c r="F4" s="295" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="286" t="s">
+      <c r="G4" s="295" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="286" t="s">
+      <c r="H4" s="295" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="286" t="s">
+      <c r="I4" s="295" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="286" t="s">
+      <c r="J4" s="295" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="286" t="s">
+      <c r="K4" s="295" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="286" t="s">
+      <c r="L4" s="295" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="286" t="s">
+      <c r="M4" s="295" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="286" t="s">
+      <c r="N4" s="295" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="288" t="s">
+      <c r="O4" s="301" t="s">
         <v>113</v>
       </c>
-      <c r="P4" s="290" t="s">
+      <c r="P4" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="303" t="s">
+      <c r="Q4" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="301" t="s">
+      <c r="R4" s="297" t="s">
         <v>115</v>
       </c>
       <c r="S4" s="205" t="s">
@@ -5022,24 +5034,24 @@
       <c r="Y4" s="208"/>
     </row>
     <row r="5" spans="1:26" s="206" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="298"/>
-      <c r="B5" s="300"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="287"/>
-      <c r="K5" s="287"/>
-      <c r="L5" s="287"/>
-      <c r="M5" s="287"/>
-      <c r="N5" s="287"/>
-      <c r="O5" s="289"/>
-      <c r="P5" s="291"/>
-      <c r="Q5" s="304"/>
-      <c r="R5" s="302"/>
+      <c r="A5" s="292"/>
+      <c r="B5" s="294"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="296"/>
+      <c r="O5" s="302"/>
+      <c r="P5" s="304"/>
+      <c r="Q5" s="300"/>
+      <c r="R5" s="298"/>
       <c r="S5" s="210" t="s">
         <v>116</v>
       </c>
@@ -5905,7 +5917,7 @@
     </row>
     <row r="25" spans="1:25" s="230" customFormat="1">
       <c r="A25" s="214" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="222">
         <v>1000</v>
@@ -5948,27 +5960,45 @@
       <c r="U25" s="7"/>
     </row>
     <row r="26" spans="1:25" s="22" customFormat="1">
-      <c r="A26" s="214"/>
-      <c r="B26" s="222"/>
+      <c r="A26" s="214" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="222">
+        <v>800</v>
+      </c>
       <c r="C26" s="215"/>
       <c r="D26" s="223"/>
-      <c r="E26" s="223"/>
+      <c r="E26" s="223">
+        <v>1830</v>
+      </c>
       <c r="F26" s="223"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="223"/>
+      <c r="G26" s="223">
+        <v>180</v>
+      </c>
+      <c r="H26" s="223">
+        <v>215</v>
+      </c>
       <c r="I26" s="223"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="223"/>
+      <c r="J26" s="223">
+        <v>40</v>
+      </c>
+      <c r="K26" s="223">
+        <v>480</v>
+      </c>
       <c r="L26" s="223"/>
       <c r="M26" s="223"/>
-      <c r="N26" s="257"/>
+      <c r="N26" s="257">
+        <v>20</v>
+      </c>
       <c r="O26" s="223"/>
       <c r="P26" s="223"/>
       <c r="Q26" s="223"/>
-      <c r="R26" s="225"/>
+      <c r="R26" s="225">
+        <v>200</v>
+      </c>
       <c r="S26" s="219">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3765</v>
       </c>
       <c r="T26" s="220"/>
       <c r="U26" s="7"/>
@@ -6239,7 +6269,7 @@
       </c>
       <c r="B37" s="240">
         <f>SUM(B6:B36)</f>
-        <v>17850</v>
+        <v>18650</v>
       </c>
       <c r="C37" s="241">
         <f t="shared" ref="C37:R37" si="1">SUM(C6:C36)</f>
@@ -6251,7 +6281,7 @@
       </c>
       <c r="E37" s="241">
         <f t="shared" si="1"/>
-        <v>3160</v>
+        <v>4990</v>
       </c>
       <c r="F37" s="241">
         <f t="shared" si="1"/>
@@ -6259,11 +6289,11 @@
       </c>
       <c r="G37" s="241">
         <f>SUM(G6:G36)</f>
-        <v>5270</v>
+        <v>5450</v>
       </c>
       <c r="H37" s="241">
         <f t="shared" si="1"/>
-        <v>1755</v>
+        <v>1970</v>
       </c>
       <c r="I37" s="241">
         <f t="shared" si="1"/>
@@ -6271,11 +6301,11 @@
       </c>
       <c r="J37" s="241">
         <f t="shared" si="1"/>
-        <v>790</v>
+        <v>830</v>
       </c>
       <c r="K37" s="241">
         <f t="shared" si="1"/>
-        <v>9360</v>
+        <v>9840</v>
       </c>
       <c r="L37" s="241">
         <f t="shared" si="1"/>
@@ -6287,7 +6317,7 @@
       </c>
       <c r="N37" s="260">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="O37" s="241">
         <f t="shared" si="1"/>
@@ -6303,11 +6333,11 @@
       </c>
       <c r="R37" s="242">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="S37" s="243">
         <f>SUM(S6:S36)</f>
-        <v>45088</v>
+        <v>48853</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -8312,6 +8342,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8328,11 +8363,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8345,8 +8375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A98" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10083,7 +10113,7 @@
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" s="110">
         <v>562030</v>
@@ -10158,13 +10188,21 @@
       <c r="BI24" s="262"/>
     </row>
     <row r="25" spans="1:61">
-      <c r="A25" s="109"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
+      <c r="A25" s="109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="110">
+        <v>433175</v>
+      </c>
+      <c r="C25" s="110">
+        <v>444350</v>
+      </c>
+      <c r="D25" s="110">
+        <v>3765</v>
+      </c>
       <c r="E25" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>448115</v>
       </c>
       <c r="F25" s="119"/>
       <c r="G25" s="102"/>
@@ -10705,23 +10743,23 @@
       </c>
       <c r="B33" s="110">
         <f>SUM(B5:B32)</f>
-        <v>10746580</v>
+        <v>11179755</v>
       </c>
       <c r="C33" s="110">
         <f>SUM(C5:C32)</f>
-        <v>10698552</v>
+        <v>11142902</v>
       </c>
       <c r="D33" s="110">
         <f>SUM(D5:D32)</f>
-        <v>44728</v>
+        <v>48493</v>
       </c>
       <c r="E33" s="110">
         <f>SUM(E5:E32)</f>
-        <v>10743280</v>
+        <v>11191395</v>
       </c>
       <c r="F33" s="118">
         <f>B33-E33</f>
-        <v>3300</v>
+        <v>-11640</v>
       </c>
       <c r="G33" s="132"/>
       <c r="H33" s="275"/>
@@ -11205,10 +11243,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="110">
-        <v>3000</v>
+        <v>12300</v>
       </c>
       <c r="D40" s="103" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="E40" s="115"/>
       <c r="F40" s="111"/>
@@ -11279,7 +11317,7 @@
         <v>16940</v>
       </c>
       <c r="D41" s="103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E41" s="145"/>
       <c r="F41" s="111"/>
@@ -11347,10 +11385,10 @@
         <v>95</v>
       </c>
       <c r="C42" s="110">
-        <v>1800</v>
+        <v>8410</v>
       </c>
       <c r="D42" s="142" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F42" s="264"/>
       <c r="G42" s="147"/>
@@ -11759,7 +11797,7 @@
         <v>4000</v>
       </c>
       <c r="D48" s="154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48" s="115"/>
       <c r="F48" s="263"/>
@@ -11824,10 +11862,10 @@
       </c>
       <c r="B49" s="107"/>
       <c r="C49" s="156">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="D49" s="157" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E49" s="115"/>
       <c r="F49" s="263"/>
@@ -12032,7 +12070,7 @@
         <v>111280</v>
       </c>
       <c r="D52" s="153" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E52" s="115"/>
       <c r="F52" s="263"/>
@@ -12098,10 +12136,10 @@
       </c>
       <c r="B53" s="107"/>
       <c r="C53" s="279">
-        <v>93020</v>
+        <v>88020</v>
       </c>
       <c r="D53" s="160" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E53" s="115"/>
       <c r="F53" s="108"/>
@@ -12172,7 +12210,7 @@
         <v>200000</v>
       </c>
       <c r="D54" s="153" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E54" s="115"/>
       <c r="F54" s="263"/>
@@ -12238,10 +12276,10 @@
       </c>
       <c r="B55" s="107"/>
       <c r="C55" s="156">
-        <v>417041</v>
+        <v>387041</v>
       </c>
       <c r="D55" s="163" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E55" s="115"/>
       <c r="F55" s="107"/>
@@ -12435,14 +12473,14 @@
     </row>
     <row r="58" spans="1:61">
       <c r="A58" s="162" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B58" s="162"/>
       <c r="C58" s="156">
-        <v>990</v>
+        <v>24320</v>
       </c>
       <c r="D58" s="160" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E58" s="115"/>
       <c r="F58" s="108"/>
@@ -12508,10 +12546,10 @@
       </c>
       <c r="B59" s="107"/>
       <c r="C59" s="156">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="D59" s="160" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E59" s="115"/>
       <c r="F59" s="107"/>
@@ -13184,10 +13222,10 @@
       </c>
       <c r="B68" s="107"/>
       <c r="C68" s="156">
-        <v>9730</v>
+        <v>8730</v>
       </c>
       <c r="D68" s="163" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E68" s="115"/>
       <c r="F68" s="167"/>
@@ -13744,10 +13782,10 @@
       </c>
       <c r="B75" s="107"/>
       <c r="C75" s="156">
-        <v>7400</v>
+        <v>7240</v>
       </c>
       <c r="D75" s="160" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E75" s="115"/>
       <c r="F75" s="172"/>
@@ -13907,7 +13945,7 @@
         <v>23340</v>
       </c>
       <c r="D77" s="160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E77" s="115"/>
       <c r="F77" s="167"/>
@@ -14304,10 +14342,10 @@
       </c>
       <c r="B82" s="107"/>
       <c r="C82" s="156">
-        <v>39800</v>
+        <v>39360</v>
       </c>
       <c r="D82" s="160" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E82" s="116"/>
       <c r="F82" s="176"/>
@@ -14624,10 +14662,10 @@
       </c>
       <c r="B86" s="157"/>
       <c r="C86" s="156">
-        <v>50580</v>
+        <v>36000</v>
       </c>
       <c r="D86" s="157" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E86" s="116"/>
       <c r="F86" s="172"/>
@@ -15179,14 +15217,14 @@
     </row>
     <row r="93" spans="1:61">
       <c r="A93" s="159" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B93" s="107"/>
       <c r="C93" s="156">
         <v>8000</v>
       </c>
       <c r="D93" s="160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F93" s="172"/>
       <c r="G93" s="170" t="s">
@@ -16764,7 +16802,7 @@
       <c r="B113" s="307"/>
       <c r="C113" s="179">
         <f>SUM(C37:C112)</f>
-        <v>2497812</v>
+        <v>2482872</v>
       </c>
       <c r="D113" s="180"/>
       <c r="F113" s="172"/>
@@ -16917,7 +16955,7 @@
       <c r="B115" s="309"/>
       <c r="C115" s="184">
         <f>C113+L136</f>
-        <v>2497812</v>
+        <v>2482872</v>
       </c>
       <c r="D115" s="185"/>
       <c r="F115" s="167"/>
@@ -19549,8 +19587,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -19580,7 +19618,7 @@
     </row>
     <row r="2" spans="1:29" ht="23.25">
       <c r="A2" s="323" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B2" s="324"/>
       <c r="C2" s="324"/>
@@ -19654,7 +19692,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="72">
-        <v>3654876.5948000005</v>
+        <v>4152451.1255000001</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="55"/>
@@ -19686,14 +19724,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="71">
-        <v>246940.80229999992</v>
+        <v>256924.75099999993</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="72">
-        <v>616844</v>
+        <v>546844</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="55"/>
@@ -19726,14 +19764,14 @@
       </c>
       <c r="B6" s="71">
         <f>B4+B5</f>
-        <v>8747681.8023000006</v>
+        <v>8757665.7510000002</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="68" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="254">
-        <v>533910</v>
+        <v>442505</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="55"/>
@@ -19770,7 +19808,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="73">
-        <v>2497812</v>
+        <v>2482872</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="55"/>
@@ -19802,7 +19840,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="71">
-        <v>45088</v>
+        <v>48853</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="68" t="s">
@@ -19883,14 +19921,14 @@
       </c>
       <c r="B10" s="75">
         <f>B5-B8-B9</f>
-        <v>201852.80229999992</v>
+        <v>208071.75099999993</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="68" t="s">
         <v>184</v>
       </c>
       <c r="E10" s="73">
-        <v>1184712.2074999996</v>
+        <v>869701.62550000008</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>142</v>
@@ -20001,7 +20039,7 @@
       </c>
       <c r="B13" s="74">
         <f>B6-B8-B11+B12-B9</f>
-        <v>8602593.8023000006</v>
+        <v>8608812.7510000002</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="70" t="s">
@@ -20009,7 +20047,7 @@
       </c>
       <c r="E13" s="73">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
-        <v>8602593.8023000006</v>
+        <v>8608812.7510000002</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="255">
@@ -20339,7 +20377,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="53">
-        <v>386921</v>
+        <v>416921</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="19" t="s">
